--- a/test-cases-polityczna-platformowka.xlsx
+++ b/test-cases-polityczna-platformowka.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\amsi_poli_platformer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="12450" windowHeight="7650" activeTab="2"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sprint backlog" sheetId="2" r:id="rId2"/>
     <sheet name="test cases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="368">
   <si>
     <t>Podstawowe informacje</t>
   </si>
@@ -377,9 +372,6 @@
     <t>Test case #7</t>
   </si>
   <si>
-    <t>Użytkownik klika lewy przycisk myszy w dowolne miejsce</t>
-  </si>
-  <si>
     <t>Test case #8</t>
   </si>
   <si>
@@ -401,9 +393,6 @@
     <t>Test case #14</t>
   </si>
   <si>
-    <t>Zostaje rozpoczęta gra po wykonaniu kroków z przypadku #11, #12, #13, #14</t>
-  </si>
-  <si>
     <t>Włącza się muzyka i mapa dla określonego poziomu</t>
   </si>
   <si>
@@ -476,9 +465,6 @@
     <t>Test case #24</t>
   </si>
   <si>
-    <t>Zostają wykonane kroki z przypadku #19</t>
-  </si>
-  <si>
     <t>Postać idzie w lewo lub w prawo</t>
   </si>
   <si>
@@ -605,18 +591,12 @@
     <t>Test case #47</t>
   </si>
   <si>
-    <t>Przeciwnika latający porusza się w kierunku gracza</t>
-  </si>
-  <si>
     <t>Test case #48</t>
   </si>
   <si>
     <t>Test case #49</t>
   </si>
   <si>
-    <t>Zostają wykonane kroki z przypadku #48</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gracz zmienia lekko pozycję </t>
   </si>
   <si>
@@ -635,54 +615,18 @@
     <t>Test case #52</t>
   </si>
   <si>
-    <t>Gracz wskakuje na przeciwnika latającego</t>
-  </si>
-  <si>
     <t>Test case #53</t>
   </si>
   <si>
-    <t>Gracz oddaje w kierunku przeciwnika latającego dwa celne strzały</t>
-  </si>
-  <si>
-    <t>Przeciwnik latający ginie</t>
-  </si>
-  <si>
     <t>Test case #54</t>
   </si>
   <si>
-    <t>Tuż nad postacią znajduje się fragment terenu</t>
-  </si>
-  <si>
-    <t>Postać gracza doskakuje tylko do fragmentu terenu i zaczyna spadać</t>
-  </si>
-  <si>
-    <t>Gracz wykonuje przypadek #34</t>
-  </si>
-  <si>
     <t>Test case #55</t>
   </si>
   <si>
-    <t>Na linii strzału znajduje się fragment terenu</t>
-  </si>
-  <si>
-    <t>Strzał zatrzymuje się na fragmencie terenu</t>
-  </si>
-  <si>
-    <t>Gracz strzela w lewo lub prawo</t>
-  </si>
-  <si>
     <t>Test case #56</t>
   </si>
   <si>
-    <t>Na linii strzału znajduje się NPC</t>
-  </si>
-  <si>
-    <t>Strzał przelatuje przez NPC</t>
-  </si>
-  <si>
-    <t>Zostaje rozpoczęta gra po wykonaniu kroków z przypadku #15</t>
-  </si>
-  <si>
     <t>Test case #57</t>
   </si>
   <si>
@@ -692,9 +636,6 @@
     <t>Chodzenie w lewo poprawnie się animuje</t>
   </si>
   <si>
-    <t>Zostaje rozpoczęta gra po wykonaniu kroków z przypadku #16</t>
-  </si>
-  <si>
     <t>Test case #58</t>
   </si>
   <si>
@@ -707,18 +648,12 @@
     <t>Test case #59</t>
   </si>
   <si>
-    <t>Zostaje rozpoczęta gra po wykonaniu kroków z przypadku #19</t>
-  </si>
-  <si>
     <t>Animacja skoku</t>
   </si>
   <si>
     <t>Skok poprawnie się animuje</t>
   </si>
   <si>
-    <t>Zostaje rozpoczęta gra po wykonaniu kroków z przypadku #32</t>
-  </si>
-  <si>
     <t>Test case #60</t>
   </si>
   <si>
@@ -731,54 +666,33 @@
     <t>Test case #61</t>
   </si>
   <si>
-    <t>Wykonuje się przesuw pocisku w lewo</t>
-  </si>
-  <si>
     <t>Test case #62</t>
   </si>
   <si>
-    <t>Gracz wykonuje przypadek #35</t>
-  </si>
-  <si>
     <t>Postać oddaje pojedynczy strzał w prawo</t>
   </si>
   <si>
-    <t>Wykonuje się przesuw pocisku w prawo</t>
-  </si>
-  <si>
     <t>Animacja pocisku</t>
   </si>
   <si>
     <t>Test case #63</t>
   </si>
   <si>
-    <t>Gracz wykonuje przypadek #33</t>
-  </si>
-  <si>
     <t>Postać oddaje serię strzałów w prawo</t>
   </si>
   <si>
     <t>Animacja pocisków</t>
   </si>
   <si>
-    <t>Wykonuje się przesuw pocisków w prawo</t>
-  </si>
-  <si>
     <t>Test case #64</t>
   </si>
   <si>
     <t>Postać oddaje serię strzałów w lewo</t>
   </si>
   <si>
-    <t>Wykonuje się przesuw pocisków w lewo</t>
-  </si>
-  <si>
     <t>Test case #65</t>
   </si>
   <si>
-    <t>Gracz wykonuje przypadek #61 lub #62</t>
-  </si>
-  <si>
     <t>Pocisk znika</t>
   </si>
   <si>
@@ -794,105 +708,42 @@
     <t>Test case #67</t>
   </si>
   <si>
-    <t>Sprawdzana jest ilość trafień przeciwnika</t>
-  </si>
-  <si>
-    <t>Jeśli ilośc trafień = 2, przeciwnik ginie</t>
-  </si>
-  <si>
     <t>Pocisk trafia w przeciwnika</t>
   </si>
   <si>
-    <t>Pocisk znika, przeciwnik zwiększa się ilość trafień o 1</t>
-  </si>
-  <si>
-    <t>Przeciwnikowi zwiększa się ilość trafień o 1</t>
-  </si>
-  <si>
     <t>Test case #68</t>
   </si>
   <si>
-    <t>Pocisk trafia w bossa</t>
-  </si>
-  <si>
-    <t>Bossowi zwiększa się ilość trafień o 1</t>
-  </si>
-  <si>
-    <t>Sprawdzana jest ilość trafień bossa</t>
-  </si>
-  <si>
-    <t>Jeśli ilośc trafień = 20, boss ginie</t>
-  </si>
-  <si>
     <t>Animuje się smierć przeciwnika</t>
   </si>
   <si>
-    <t>Ilość trafień = 2</t>
-  </si>
-  <si>
     <t>Test case #69</t>
   </si>
   <si>
     <t>Test case #70</t>
   </si>
   <si>
-    <t>Ilość trafień = 20</t>
-  </si>
-  <si>
-    <t>Boss ginie</t>
-  </si>
-  <si>
-    <t>Animuje się smierć bossa</t>
-  </si>
-  <si>
     <t>Test case #71</t>
   </si>
   <si>
-    <t>Animacja śmierci bossa zakończyła się</t>
-  </si>
-  <si>
     <t>Wyświetla się komunikat zaliczenia mapy</t>
   </si>
   <si>
-    <t>Wykonany jest krok z przypadku #70</t>
-  </si>
-  <si>
-    <t>Wykonany jest krok z przypadku #69</t>
-  </si>
-  <si>
     <t>Test case #72</t>
   </si>
   <si>
-    <t>Wykonany jest krok z przypadku #71</t>
-  </si>
-  <si>
     <t>Test case #73</t>
   </si>
   <si>
-    <t>Użytkownik wciska "Enter"</t>
-  </si>
-  <si>
     <t>Test case #74</t>
   </si>
   <si>
-    <t>Sprawdzana jest ilość zaliczonych map</t>
-  </si>
-  <si>
-    <t>Wykonany jest krok z przypadku #72 lub #73</t>
-  </si>
-  <si>
-    <t>Ilość zaliczonych map = 4</t>
-  </si>
-  <si>
     <t>Wyświetla się plansza przejścia gry</t>
   </si>
   <si>
     <t>Test case #75</t>
   </si>
   <si>
-    <t>Wykonany jest krok z przypadku #74</t>
-  </si>
-  <si>
     <t>Ładuje się ekran początkowy gry</t>
   </si>
   <si>
@@ -902,201 +753,30 @@
     <t>Test case #77</t>
   </si>
   <si>
-    <t>Ilość zaliczonych map &lt; 4</t>
-  </si>
-  <si>
-    <t>Ładuje się kolejna mapa</t>
-  </si>
-  <si>
     <t>Test case #78</t>
   </si>
   <si>
-    <t>Wykonany jest krok z przypadku #61</t>
-  </si>
-  <si>
-    <t>Pocisk przeleciał 10 tiledów</t>
-  </si>
-  <si>
     <t>Test case #79</t>
   </si>
   <si>
-    <t>&lt;---przykladowo 10 tiledow zamiast 1/3 ekranu</t>
-  </si>
-  <si>
     <t>Test case #80</t>
   </si>
   <si>
     <t>Mapa zostaje wczytana</t>
   </si>
   <si>
-    <t>Przeciwnik chodząco-strzelający porusza się w jednym, początkowo losowym kierunku</t>
-  </si>
-  <si>
-    <t>Test case #81</t>
-  </si>
-  <si>
-    <t>Test case #82</t>
-  </si>
-  <si>
     <t>Przeciwnik chodząco-strzelający porusza się w prawo</t>
   </si>
   <si>
-    <t>Przeciwnik chodząco-strzelający napotyka na przeszkodę</t>
-  </si>
-  <si>
     <t>Przeciwnik chodząco-strzelający porusza się w lewo</t>
   </si>
   <si>
-    <t>Test case #83</t>
-  </si>
-  <si>
-    <t>Test case #84</t>
-  </si>
-  <si>
-    <t>Test case #85</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodząco-strzelający napotyka na dołek</t>
-  </si>
-  <si>
-    <t>Test case #86</t>
-  </si>
-  <si>
-    <t>Bohater znajduje się na lewo od przeciwnika chodząco-strzelającego</t>
-  </si>
-  <si>
-    <t>Test case #87</t>
-  </si>
-  <si>
-    <t>Bohater znajduje się na prawo od przeciwnika chodząco-strzelającego</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodząco-strzelający oddaje strzał pociskiem poruszającym się w lewo</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodząco-strzelający oddaje strzał pociskiem poruszającym się w prawo</t>
-  </si>
-  <si>
     <t>Wykonuje się animacja przeciwnika chodząca-strzelającego w prawo</t>
   </si>
   <si>
     <t>Wykonuje się animacja przeciwnika chodząca-strzelającego w lewo</t>
   </si>
   <si>
-    <t>Test case #88</t>
-  </si>
-  <si>
-    <t>Test case #89</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodząco-strzelający porusza się w jednym, losowo wybranym kierunku</t>
-  </si>
-  <si>
-    <t>Test case #90</t>
-  </si>
-  <si>
-    <t>Animacja pocisku przeciwnika</t>
-  </si>
-  <si>
-    <t>Wykonuje się przesuw pocisku przeciwnika w prawo</t>
-  </si>
-  <si>
-    <t>Test case #91</t>
-  </si>
-  <si>
-    <t>Wykonuje się przesuw pocisku przeciwnika w lewo</t>
-  </si>
-  <si>
-    <t>Test case #92</t>
-  </si>
-  <si>
-    <t>Wykonuje się przesuw pocisku przeciwnika</t>
-  </si>
-  <si>
-    <t>Pocisk przeciwnika trafia w bohatera</t>
-  </si>
-  <si>
-    <t>Test case #93</t>
-  </si>
-  <si>
-    <t>Wykonuje się przypadek #92</t>
-  </si>
-  <si>
-    <t>Animuje się śmierć bohatera</t>
-  </si>
-  <si>
-    <t>Bohater ginie, ilośc żyć zmniejsza się o 1</t>
-  </si>
-  <si>
-    <t>Kończy się animacja śmierci bohatera</t>
-  </si>
-  <si>
-    <t>Jeśli ilość żyć &gt; 0, bohater respawnuje się na początku planszy</t>
-  </si>
-  <si>
-    <t>Jeśli ilość żyć wynosi 0, wczytuje się ekran końca gry</t>
-  </si>
-  <si>
-    <t>Test case #94</t>
-  </si>
-  <si>
-    <t>Test case #95</t>
-  </si>
-  <si>
-    <t>Wykonany jest krok z przypadku #93</t>
-  </si>
-  <si>
-    <t>Wczytuje się ekran nieprzejścia gry</t>
-  </si>
-  <si>
-    <t>Test case #96</t>
-  </si>
-  <si>
-    <t>Test case #97</t>
-  </si>
-  <si>
-    <t>Test case #98</t>
-  </si>
-  <si>
-    <t>Test case #99</t>
-  </si>
-  <si>
-    <t>Test case #100</t>
-  </si>
-  <si>
-    <t>Test case #101</t>
-  </si>
-  <si>
-    <t>Test case #102</t>
-  </si>
-  <si>
-    <t>Test case #103</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodzący porusza się w jednym, losowo wybranym kierunku</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodzący porusza się w prawo</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodzący porusza się w lewo</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodzący napotyka na dołek</t>
-  </si>
-  <si>
-    <t>Przeciwnik chodzący napotyka na przeszkodę</t>
-  </si>
-  <si>
-    <t>Wykonuje się animacja przeciwnika chodzącego w prawo</t>
-  </si>
-  <si>
-    <t>Wykonuje się animacja przeciwnika chodzącego w lewo</t>
-  </si>
-  <si>
-    <t>&lt;--- 20 trafien bossa do omówienia</t>
-  </si>
-  <si>
     <t>Użytkownik pozostaje w menu do skończenia się muzyki</t>
   </si>
   <si>
@@ -1287,6 +967,159 @@
   </si>
   <si>
     <t>Nic się nie dzieje, gracz przechodzi przez ogień, pociski i przeciwników</t>
+  </si>
+  <si>
+    <t>Test case #51</t>
+  </si>
+  <si>
+    <t>Pocisk gracza trafia latającego przeciwnika</t>
+  </si>
+  <si>
+    <t>latający przeciwnik ginie</t>
+  </si>
+  <si>
+    <t>Zostaje rozpoczęta gra po wykonaniu kroków z przypadku #11</t>
+  </si>
+  <si>
+    <t>Zostaje rozpoczęta gra po wykonaniu kroków z przypadku #24</t>
+  </si>
+  <si>
+    <t>Gracz wykonuje przypadek #26</t>
+  </si>
+  <si>
+    <t>Gracz wykonuje przypadek #30</t>
+  </si>
+  <si>
+    <t>Pocisk przesuwa się w prawo</t>
+  </si>
+  <si>
+    <t>Gracz wykonuje przypadek #27</t>
+  </si>
+  <si>
+    <t>Gracz wykonuje przypadek #31</t>
+  </si>
+  <si>
+    <t>Pocisk przesuwa się w leci</t>
+  </si>
+  <si>
+    <t>Pociski przesuwają się w lewo</t>
+  </si>
+  <si>
+    <t>Pociski przesuwają się w prawo</t>
+  </si>
+  <si>
+    <t>Gracz wykonuje przypadek #56 lub #57</t>
+  </si>
+  <si>
+    <t>Wykonany jest przypadek #61</t>
+  </si>
+  <si>
+    <t>Gracz dociera do końca mapy</t>
+  </si>
+  <si>
+    <t>Wykonany jest przypadek #63</t>
+  </si>
+  <si>
+    <t>wyświetla się komunikat zaliczenia mapy</t>
+  </si>
+  <si>
+    <t>wyświetla się aktualna liczba zdobytych punktów</t>
+  </si>
+  <si>
+    <t>liczba wyświetlanych punktów zgadza się z rzeczywistą</t>
+  </si>
+  <si>
+    <t>gracz klika na opcję Powtórz poziom</t>
+  </si>
+  <si>
+    <t>gracz rozpoczyna grę grę na początku poziomu, który przed chwilą ukończył</t>
+  </si>
+  <si>
+    <t>gracz klika na opcję Następny poziom</t>
+  </si>
+  <si>
+    <t>uruchamia się kolejna mapa</t>
+  </si>
+  <si>
+    <t>gracz klika na ikonę głośnika</t>
+  </si>
+  <si>
+    <t>muzyka włącza się, jeśli była wyłączona lub wyłącza się, jeśli była włączona</t>
+  </si>
+  <si>
+    <t>Gracz kończy czwartą planszę</t>
+  </si>
+  <si>
+    <t>Wykonany jest krok z przypadku #68</t>
+  </si>
+  <si>
+    <t>Użytkownik wciska spację</t>
+  </si>
+  <si>
+    <t>Zostaje rozpoczęta gra po wykonaniu kroków z przypadku #5 lub #6</t>
+  </si>
+  <si>
+    <t>Przeciwnik chodząco-strzelający porusza się w jednym losowym kierunku</t>
+  </si>
+  <si>
+    <t>Wykonany zostaje krok #70</t>
+  </si>
+  <si>
+    <t>Przeciwnik chodząco-strzelający zmienia kierunek poruszania się</t>
+  </si>
+  <si>
+    <t>Przeciwnik dochodzi do ściany</t>
+  </si>
+  <si>
+    <t>Wykanany zostaje przypadek #70</t>
+  </si>
+  <si>
+    <t>Przeciwnik dochodzi do przepaści</t>
+  </si>
+  <si>
+    <t>Zbliżamy się do przeciwnika strzelającego</t>
+  </si>
+  <si>
+    <t>Przeciwnik strzelający zatrzymuje się</t>
+  </si>
+  <si>
+    <t>Wykonany zostaje krok #75</t>
+  </si>
+  <si>
+    <t>Przeciwnik strzelający stoi w stronę gracza</t>
+  </si>
+  <si>
+    <t>Wykonany zostaje krok #76</t>
+  </si>
+  <si>
+    <t>Przeciwnik strzelający odwraca się w stronę gracza</t>
+  </si>
+  <si>
+    <t>Przeciwnik strzelający zaczyna strzelać w stronę gracza</t>
+  </si>
+  <si>
+    <t>Przeciwnik strzelający oddaje strzał w stronę gracza</t>
+  </si>
+  <si>
+    <t>Użytkownik klika opcję Do menu!</t>
+  </si>
+  <si>
+    <t>gracz rozpoczyna grę na początku poziomu, który przed chwilą ukończył</t>
+  </si>
+  <si>
+    <t>wykonany zostaje krok #65</t>
+  </si>
+  <si>
+    <t>gracz zaczyna poziom</t>
+  </si>
+  <si>
+    <t>liczba punktów ustawia się na poziomie sprzed poprzedniego rozpoczęcia poziomu</t>
+  </si>
+  <si>
+    <t>użytkownik kilka opcję Tablica wyników</t>
+  </si>
+  <si>
+    <t>Zostaje wyświetlone 5 najlepszych wyników</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1198,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1703,7 +1536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2908,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L402"/>
+  <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2959,7 +2792,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>108</v>
@@ -3003,7 +2836,7 @@
         <v>111</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>359</v>
+        <v>254</v>
       </c>
       <c r="L8" t="s">
         <v>92</v>
@@ -3041,10 +2874,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>360</v>
+        <v>255</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="L12" t="s">
         <v>96</v>
@@ -3082,10 +2915,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="L16" t="s">
         <v>100</v>
@@ -3112,7 +2945,7 @@
         <v>116</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
       <c r="L19" t="s">
         <v>103</v>
@@ -3123,10 +2956,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>362</v>
+        <v>257</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -3142,7 +2975,7 @@
         <v>116</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>361</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3150,10 +2983,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -3166,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3177,15 +3010,15 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3193,10 +3026,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -3204,15 +3037,15 @@
         <v>2</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3220,10 +3053,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3231,15 +3064,15 @@
         <v>2</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3247,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>366</v>
+        <v>261</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3258,15 +3091,15 @@
         <v>2</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>369</v>
+        <v>264</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3274,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3285,15 +3118,15 @@
         <v>2</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3301,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3312,15 +3145,15 @@
         <v>2</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3328,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3339,15 +3172,15 @@
         <v>2</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3355,10 +3188,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3366,15 +3199,15 @@
         <v>2</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3382,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3393,15 +3226,15 @@
         <v>2</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3409,10 +3242,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3420,15 +3253,15 @@
         <v>2</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B66" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3436,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3447,15 +3280,15 @@
         <v>2</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B70" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3463,10 +3296,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3474,15 +3307,15 @@
         <v>2</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>374</v>
+        <v>269</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>377</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3490,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3501,15 +3334,15 @@
         <v>2</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3517,10 +3350,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -3528,15 +3361,15 @@
         <v>2</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B82" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3544,10 +3377,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>375</v>
+        <v>270</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -3555,15 +3388,15 @@
         <v>2</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B86" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3571,10 +3404,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -3582,15 +3415,15 @@
         <v>2</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B90" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3598,10 +3431,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -3609,15 +3442,15 @@
         <v>2</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3625,10 +3458,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3636,15 +3469,15 @@
         <v>2</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>380</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B98" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3652,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>364</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3663,15 +3496,15 @@
         <v>2</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>382</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3679,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3690,15 +3523,15 @@
         <v>2</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>391</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -3706,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>390</v>
+        <v>285</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3717,15 +3550,15 @@
         <v>2</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>385</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -3733,10 +3566,10 @@
         <v>1</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3744,15 +3577,15 @@
         <v>2</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>394</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B114" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3760,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>392</v>
+        <v>287</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>393</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3771,15 +3604,15 @@
         <v>2</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>395</v>
+        <v>290</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3787,10 +3620,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3798,15 +3631,15 @@
         <v>2</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>398</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B122" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>396</v>
+        <v>291</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>397</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3825,15 +3658,15 @@
         <v>2</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>399</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B126" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3841,10 +3674,10 @@
         <v>1</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3852,15 +3685,15 @@
         <v>2</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>402</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B130" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3868,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>400</v>
+        <v>295</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>401</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3879,15 +3712,15 @@
         <v>2</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>403</v>
+        <v>298</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3895,10 +3728,10 @@
         <v>1</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3906,15 +3739,15 @@
         <v>2</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>386</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B138" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3922,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>371</v>
+        <v>266</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -3933,15 +3766,15 @@
         <v>2</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B142" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3949,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -3960,15 +3793,15 @@
         <v>2</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>388</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B146" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -3976,10 +3809,10 @@
         <v>1</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>372</v>
+        <v>267</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -3987,15 +3820,15 @@
         <v>2</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>389</v>
+        <v>284</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B150" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4003,10 +3836,10 @@
         <v>1</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4014,15 +3847,15 @@
         <v>2</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4030,10 +3863,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4041,15 +3874,15 @@
         <v>2</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>405</v>
+        <v>300</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B158" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4057,10 +3890,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4068,15 +3901,15 @@
         <v>2</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B162" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4084,10 +3917,10 @@
         <v>1</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>406</v>
+        <v>301</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4095,15 +3928,15 @@
         <v>2</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B166" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4111,15 +3944,15 @@
         <v>1</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>404</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B169" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -4127,15 +3960,15 @@
         <v>1</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>407</v>
+        <v>302</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>418</v>
+        <v>313</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B172" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -4143,10 +3976,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>409</v>
+        <v>304</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>418</v>
+        <v>313</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4154,15 +3987,15 @@
         <v>2</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>410</v>
+        <v>305</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>411</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B176" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4170,15 +4003,15 @@
         <v>1</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>413</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B179" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4186,10 +4019,10 @@
         <v>1</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4197,15 +4030,15 @@
         <v>2</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B183" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4213,10 +4046,10 @@
         <v>1</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4224,15 +4057,15 @@
         <v>2</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B187" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4240,10 +4073,10 @@
         <v>1</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4251,15 +4084,15 @@
         <v>2</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>417</v>
+        <v>312</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B191" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4267,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>415</v>
+        <v>310</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4278,15 +4111,15 @@
         <v>2</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B195" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -4294,10 +4127,10 @@
         <v>1</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>419</v>
+        <v>314</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>418</v>
+        <v>313</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
@@ -4305,15 +4138,15 @@
         <v>2</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>420</v>
+        <v>315</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>421</v>
+        <v>316</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B199" s="9" t="s">
-        <v>203</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4321,10 +4154,10 @@
         <v>1</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4332,15 +4165,15 @@
         <v>2</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>202</v>
+        <v>319</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B203" s="9" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4348,26 +4181,26 @@
         <v>1</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="9">
         <v>2</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B207" s="9" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -4375,121 +4208,118 @@
         <v>1</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="9">
         <v>2</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C209" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B211" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A212" s="9">
+        <v>1</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="9">
+        <v>2</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B211" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="9">
-        <v>1</v>
-      </c>
-      <c r="B212" s="9" t="s">
+      <c r="C213" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C212" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A213" s="9">
-        <v>2</v>
-      </c>
-      <c r="B213" s="9" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B215" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A216" s="9">
+        <v>1</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="9">
+        <v>2</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C217" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B215" s="9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="9">
-        <v>1</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="9">
-        <v>2</v>
-      </c>
-      <c r="B217" s="9" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B219" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="9">
+        <v>1</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="9">
+        <v>2</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B223" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="9">
+        <v>1</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C224" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B219" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A220" s="9">
-        <v>1</v>
-      </c>
-      <c r="B220" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="9">
-        <v>2</v>
-      </c>
-      <c r="B221" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B223" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A224" s="9">
-        <v>1</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D224" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4497,26 +4327,26 @@
         <v>2</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>226</v>
+        <v>324</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B227" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="9">
         <v>1</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>228</v>
+        <v>325</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4524,26 +4354,26 @@
         <v>2</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>230</v>
+        <v>328</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B231" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="9">
         <v>1</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="C232" s="9" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4551,26 +4381,26 @@
         <v>2</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C233" s="9" t="s">
-        <v>234</v>
+        <v>329</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B235" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A236" s="9">
         <v>1</v>
       </c>
       <c r="B236" s="9" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="C236" s="9" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4578,26 +4408,26 @@
         <v>2</v>
       </c>
       <c r="B237" s="9" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B239" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A240" s="9">
         <v>1</v>
       </c>
       <c r="B240" s="9" t="s">
-        <v>238</v>
+        <v>330</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4605,15 +4435,15 @@
         <v>2</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C241" s="9" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B243" s="9" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -4621,10 +4451,10 @@
         <v>1</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>243</v>
+        <v>331</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -4632,15 +4462,15 @@
         <v>2</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B247" s="9" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4648,1080 +4478,458 @@
         <v>1</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="C248" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="9">
-        <v>2</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>246</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B250" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="9">
+        <v>1</v>
+      </c>
       <c r="B251" s="9" t="s">
-        <v>250</v>
+        <v>333</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A252" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>251</v>
+        <v>335</v>
       </c>
       <c r="C252" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="9">
-        <v>2</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>252</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B254" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="9">
+        <v>1</v>
+      </c>
       <c r="B255" s="9" t="s">
-        <v>255</v>
+        <v>333</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A256" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B256" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B258" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="9">
+        <v>1</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="9">
+        <v>2</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B262" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="9">
+        <v>1</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A264" s="9">
+        <v>2</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B266" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="9">
+        <v>1</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B269" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="9">
+        <v>1</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="9">
+        <v>2</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B273" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A274" s="9">
+        <v>1</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A275" s="9">
+        <v>2</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B277" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A278" s="9">
+        <v>1</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A279" s="9">
+        <v>2</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B281" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A282" s="9">
+        <v>1</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A283" s="9">
+        <v>2</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B285" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="9">
+        <v>1</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="9">
+        <v>2</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C287" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C256" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="9">
-        <v>2</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B259" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A260" s="9">
-        <v>1</v>
-      </c>
-      <c r="B260" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D260" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A261" s="9">
-        <v>2</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B263" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A264" s="9">
-        <v>1</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C264" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D264" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="9">
-        <v>2</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B267" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="9">
-        <v>1</v>
-      </c>
-      <c r="B268" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C268" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="9">
-        <v>2</v>
-      </c>
-      <c r="B269" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C269" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B271" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A272" s="9">
-        <v>1</v>
-      </c>
-      <c r="B272" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C272" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="9">
-        <v>2</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C273" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B275" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="9">
-        <v>1</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C276" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A277" s="9">
-        <v>2</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C277" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B279" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="9">
-        <v>1</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A281" s="9">
-        <v>2</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B283" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="9">
-        <v>1</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="9">
-        <v>2</v>
-      </c>
-      <c r="B285" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B287" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A288" s="9">
-        <v>1</v>
-      </c>
-      <c r="B288" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="9">
-        <v>2</v>
-      </c>
       <c r="B289" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C289" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="9">
+        <v>1</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A291" s="9">
+        <v>2</v>
+      </c>
       <c r="B291" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="9">
-        <v>1</v>
-      </c>
-      <c r="B292" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C292" s="9" t="s">
-        <v>287</v>
+        <v>250</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="9">
-        <v>2</v>
-      </c>
       <c r="B293" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A294" s="9">
+        <v>1</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A295" s="9">
+        <v>2</v>
+      </c>
       <c r="B295" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="9">
-        <v>1</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C296" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A297" s="9">
-        <v>2</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B297" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C297" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="9">
+        <v>1</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A299" s="9">
+        <v>2</v>
+      </c>
       <c r="B299" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A300" s="9">
-        <v>1</v>
-      </c>
-      <c r="B300" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C300" s="9" t="s">
-        <v>284</v>
+        <v>358</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="9">
-        <v>2</v>
-      </c>
       <c r="B301" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="9">
+        <v>1</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A303" s="9">
+        <v>2</v>
+      </c>
       <c r="B303" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="9">
-        <v>1</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>236</v>
+        <v>359</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="9">
-        <v>2</v>
-      </c>
       <c r="B305" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C305" s="9" t="s">
-        <v>252</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="9">
+        <v>1</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="9">
+        <v>2</v>
+      </c>
       <c r="B307" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="9">
-        <v>1</v>
-      </c>
-      <c r="B308" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C308" s="9" t="s">
-        <v>240</v>
+        <v>361</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="9">
-        <v>2</v>
-      </c>
       <c r="B309" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C309" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="9">
+        <v>1</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A311" s="9">
+        <v>2</v>
+      </c>
       <c r="B311" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A312" s="9">
-        <v>1</v>
-      </c>
-      <c r="B312" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C312" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A313" s="9">
-        <v>2</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B313" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C313" s="9" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="9">
+        <v>1</v>
+      </c>
       <c r="B314" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A315" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>126</v>
+        <v>366</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A316" s="9">
-        <v>2</v>
-      </c>
-      <c r="B316" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C316" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B318" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A319" s="9">
-        <v>1</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C319" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A320" s="9">
-        <v>2</v>
-      </c>
-      <c r="B320" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B321" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A322" s="9">
-        <v>1</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A323" s="9">
-        <v>2</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B325" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A326" s="9">
-        <v>1</v>
-      </c>
-      <c r="B326" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C326" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A327" s="9">
-        <v>2</v>
-      </c>
-      <c r="B327" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C327" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B329" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A330" s="9">
-        <v>1</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C330" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A331" s="9">
-        <v>2</v>
-      </c>
-      <c r="B331" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C331" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B333" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A334" s="9">
-        <v>1</v>
-      </c>
-      <c r="B334" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C334" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A335" s="9">
-        <v>2</v>
-      </c>
-      <c r="B335" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C335" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B337" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A338" s="9">
-        <v>1</v>
-      </c>
-      <c r="B338" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C338" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A339" s="9">
-        <v>2</v>
-      </c>
-      <c r="B339" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C339" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B341" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A342" s="9">
-        <v>1</v>
-      </c>
-      <c r="B342" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C342" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A343" s="9">
-        <v>2</v>
-      </c>
-      <c r="B343" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C343" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B345" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A346" s="9">
-        <v>1</v>
-      </c>
-      <c r="B346" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C346" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A347" s="9">
-        <v>2</v>
-      </c>
-      <c r="B347" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C347" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B349" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A350" s="9">
-        <v>1</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C350" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A351" s="9">
-        <v>2</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C351" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B353" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A354" s="9">
-        <v>1</v>
-      </c>
-      <c r="B354" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C354" s="9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A355" s="9">
-        <v>2</v>
-      </c>
-      <c r="B355" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C355" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B357" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358" s="9">
-        <v>1</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C358" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359" s="9">
-        <v>2</v>
-      </c>
-      <c r="B359" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C359" s="9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B361" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362" s="9">
-        <v>1</v>
-      </c>
-      <c r="B362" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C362" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A363" s="9">
-        <v>2</v>
-      </c>
-      <c r="B363" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C363" s="9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B365" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366" s="9">
-        <v>1</v>
-      </c>
-      <c r="B366" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C366" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A367" s="9">
-        <v>2</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C367" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B369" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370" s="9">
-        <v>1</v>
-      </c>
-      <c r="B370" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C370" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371" s="9">
-        <v>2</v>
-      </c>
-      <c r="B371" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C371" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B373" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374" s="9">
-        <v>1</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C374" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A375" s="9">
-        <v>2</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C375" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B377" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A378" s="9">
-        <v>1</v>
-      </c>
-      <c r="B378" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C378" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A379" s="9">
-        <v>2</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C379" s="9" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B381" s="9" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A382" s="9">
-        <v>1</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C382" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A383" s="9">
-        <v>2</v>
-      </c>
-      <c r="B383" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C383" s="9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B384" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A385" s="9">
-        <v>1</v>
-      </c>
-      <c r="B385" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C385" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A386" s="9">
-        <v>2</v>
-      </c>
-      <c r="B386" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C386" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B388" s="9" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A389" s="9">
-        <v>1</v>
-      </c>
-      <c r="B389" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C389" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A390" s="9">
-        <v>2</v>
-      </c>
-      <c r="B390" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C390" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B392" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A393" s="9">
-        <v>1</v>
-      </c>
-      <c r="B393" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C393" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A394" s="9">
-        <v>2</v>
-      </c>
-      <c r="B394" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C394" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B396" s="9" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A397" s="9">
-        <v>1</v>
-      </c>
-      <c r="B397" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C397" s="9" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A398" s="9">
-        <v>2</v>
-      </c>
-      <c r="B398" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C398" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B400" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A401" s="9">
-        <v>1</v>
-      </c>
-      <c r="B401" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C401" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A402" s="9">
-        <v>2</v>
-      </c>
-      <c r="B402" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C402" s="9" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
